--- a/resultats_nouveaux_points_fhaut.xlsx
+++ b/resultats_nouveaux_points_fhaut.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c6d2936775fb277a/Documents/GitHub/piano_project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="93" documentId="11_2B59D2BFD380DBA3D3FF4A134F3088B35299F5C9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C1DEF874-9336-433A-9E07-AA45757187BF}"/>
+  <xr:revisionPtr revIDLastSave="95" documentId="11_2B59D2BFD380DBA3D3FF4A134F3088B35299F5C9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AB7AB07F-74B0-4CBC-9868-A78CB5B4C0A7}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1501,6 +1501,8 @@
         <c:axId val="674555696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="1.2"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="r"/>
@@ -1611,6 +1613,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="674555696"/>
+        <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
@@ -2318,6 +2321,10 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2867,7 +2874,7 @@
         <v>1.0786264950952029</v>
       </c>
       <c r="F11">
-        <f>E11/2</f>
+        <f t="shared" ref="F11:F34" si="1">E11/2</f>
         <v>0.53931324754760146</v>
       </c>
       <c r="G11">
@@ -2891,7 +2898,7 @@
         <v>1.365110100992952</v>
       </c>
       <c r="F12">
-        <f>E12/2</f>
+        <f t="shared" si="1"/>
         <v>0.68255505049647602</v>
       </c>
       <c r="G12">
@@ -2915,7 +2922,7 @@
         <v>1.3170419507571169</v>
       </c>
       <c r="F13">
-        <f>E13/2</f>
+        <f t="shared" si="1"/>
         <v>0.65852097537855847</v>
       </c>
       <c r="G13">
@@ -2939,7 +2946,7 @@
         <v>1.5445339290555999</v>
       </c>
       <c r="F14">
-        <f>E14/2</f>
+        <f t="shared" si="1"/>
         <v>0.77226696452779997</v>
       </c>
       <c r="G14">
@@ -2963,7 +2970,7 @@
         <v>1.399014475210931</v>
       </c>
       <c r="F15">
-        <f>E15/2</f>
+        <f t="shared" si="1"/>
         <v>0.69950723760546551</v>
       </c>
       <c r="G15">
@@ -2987,7 +2994,7 @@
         <v>1.446331205738755</v>
       </c>
       <c r="F16">
-        <f>E16/2</f>
+        <f t="shared" si="1"/>
         <v>0.72316560286937748</v>
       </c>
       <c r="G16">
@@ -3011,7 +3018,7 @@
         <v>1.4227878177347799</v>
       </c>
       <c r="F17">
-        <f>E17/2</f>
+        <f t="shared" si="1"/>
         <v>0.71139390886738996</v>
       </c>
       <c r="G17">
@@ -3035,7 +3042,7 @@
         <v>1.3804753317554901</v>
       </c>
       <c r="F18">
-        <f>E18/2</f>
+        <f t="shared" si="1"/>
         <v>0.69023766587774504</v>
       </c>
       <c r="G18">
@@ -3059,7 +3066,7 @@
         <v>1.488720956996044</v>
       </c>
       <c r="F19">
-        <f>E19/2</f>
+        <f t="shared" si="1"/>
         <v>0.744360478498022</v>
       </c>
       <c r="G19">
@@ -3083,7 +3090,7 @@
         <v>1.3533805519293951</v>
       </c>
       <c r="F20">
-        <f>E20/2</f>
+        <f t="shared" si="1"/>
         <v>0.67669027596469755</v>
       </c>
       <c r="G20">
@@ -3107,7 +3114,7 @@
         <v>1.464247554184724</v>
       </c>
       <c r="F21">
-        <f>E21/2</f>
+        <f t="shared" si="1"/>
         <v>0.73212377709236198</v>
       </c>
       <c r="G21">
@@ -3131,7 +3138,7 @@
         <v>1.4252342294392979</v>
       </c>
       <c r="F22">
-        <f>E22/2</f>
+        <f t="shared" si="1"/>
         <v>0.71261711471964895</v>
       </c>
       <c r="G22">
@@ -3155,7 +3162,7 @@
         <v>1.4829235538789609</v>
       </c>
       <c r="F23">
-        <f>E23/2</f>
+        <f t="shared" si="1"/>
         <v>0.74146177693948045</v>
       </c>
       <c r="G23">
@@ -3179,7 +3186,7 @@
         <v>1.360514923932773</v>
       </c>
       <c r="F24">
-        <f>E24/2</f>
+        <f t="shared" si="1"/>
         <v>0.68025746196638648</v>
       </c>
       <c r="G24">
@@ -3203,7 +3210,7 @@
         <v>1.2859861925828691</v>
       </c>
       <c r="F25">
-        <f>E25/2</f>
+        <f t="shared" si="1"/>
         <v>0.64299309629143453</v>
       </c>
       <c r="G25">
@@ -3227,7 +3234,7 @@
         <v>1.304291899422181</v>
       </c>
       <c r="F26">
-        <f>E26/2</f>
+        <f t="shared" si="1"/>
         <v>0.65214594971109052</v>
       </c>
       <c r="G26">
@@ -3251,7 +3258,7 @@
         <v>1.224952273968553</v>
       </c>
       <c r="F27">
-        <f>E27/2</f>
+        <f t="shared" si="1"/>
         <v>0.6124761369842765</v>
       </c>
       <c r="G27">
@@ -3275,7 +3282,7 @@
         <v>1.056506037130545</v>
       </c>
       <c r="F28">
-        <f>E28/2</f>
+        <f t="shared" si="1"/>
         <v>0.52825301856527251</v>
       </c>
       <c r="G28">
@@ -3299,7 +3306,7 @@
         <v>1.0012281605730311</v>
       </c>
       <c r="F29">
-        <f>E29/2</f>
+        <f t="shared" si="1"/>
         <v>0.50061408028651555</v>
       </c>
       <c r="G29">
@@ -3323,7 +3330,7 @@
         <v>1.0356268793844099</v>
       </c>
       <c r="F30">
-        <f>E30/2</f>
+        <f t="shared" si="1"/>
         <v>0.51781343969220495</v>
       </c>
       <c r="G30">
@@ -3347,7 +3354,7 @@
         <v>1.1226942767245529</v>
       </c>
       <c r="F31">
-        <f>E31/2</f>
+        <f t="shared" si="1"/>
         <v>0.56134713836227645</v>
       </c>
       <c r="G31">
@@ -3371,7 +3378,7 @@
         <v>1.144649165836493</v>
       </c>
       <c r="F32">
-        <f>E32/2</f>
+        <f t="shared" si="1"/>
         <v>0.5723245829182465</v>
       </c>
       <c r="G32">
@@ -3395,7 +3402,7 @@
         <v>1.2993799339658489</v>
       </c>
       <c r="F33">
-        <f>E33/2</f>
+        <f t="shared" si="1"/>
         <v>0.64968996698292447</v>
       </c>
       <c r="G33">
@@ -3419,7 +3426,7 @@
         <v>1.248192115572673</v>
       </c>
       <c r="F34">
-        <f>E34/2</f>
+        <f t="shared" si="1"/>
         <v>0.62409605778633648</v>
       </c>
       <c r="G34">
